--- a/public/uploads/create-qr.xlsx
+++ b/public/uploads/create-qr.xlsx
@@ -24,9 +24,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>PR17001581</t>
-  </si>
-  <si>
     <t>Stock PR</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>ItemsCode</t>
+  </si>
+  <si>
+    <t>PR17001582</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,19 +482,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -502,242 +502,242 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>540018</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>540009</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>520013</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>520006</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>540032</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>520003</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>400008</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>440005</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>440006</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>540180</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>540307</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>600058</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
